--- a/resultados/comportamentoMMQ_slot10.xlsx
+++ b/resultados/comportamentoMMQ_slot10.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dwt_198.mtx</t>
+          <t>ck400.mtx</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.0348724714376242</v>
+        <v>0.823970047407532</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.08243436859742377</v>
+        <v>-0.0003155665658877773</v>
       </c>
       <c r="H2" t="n">
-        <v>12.78677783886359</v>
+        <v>5.505246479575692</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dwt_198.mtx</t>
+          <t>ck400.mtx</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.1726080980756917</v>
+        <v>0.8913460663268811</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -528,10 +528,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.756030488721014</v>
+        <v>-0.002373315504038873</v>
       </c>
       <c r="H3" t="n">
-        <v>25.74936554575674</v>
+        <v>5.507597232350061</v>
       </c>
     </row>
     <row r="4">
@@ -540,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dwt_198.mtx</t>
+          <t>ck400.mtx</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.03047148800319384</v>
+        <v>0.8239863552601053</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -560,10 +560,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.002051512000923633</v>
+        <v>-5.734350332724196e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>9.214168866043714</v>
+        <v>5.505246865301907</v>
       </c>
     </row>
     <row r="5">
@@ -572,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dwt_198.mtx</t>
+          <t>ck400.mtx</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.03047148800319384</v>
+        <v>0.8239863552601053</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9979505909115256</v>
+        <v>0.9999426581407801</v>
       </c>
       <c r="H5" t="n">
-        <v>9.214168866043714</v>
+        <v>5.505246865301907</v>
       </c>
     </row>
     <row r="6">
@@ -604,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dwt_198.mtx</t>
+          <t>ck400.mtx</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.1610823553377574</v>
+        <v>0.8913584516475502</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -624,10 +624,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1223202360275764</v>
+        <v>-0.0004312681981111245</v>
       </c>
       <c r="H6" t="n">
-        <v>12.89673821416452</v>
+        <v>5.507599027065448</v>
       </c>
     </row>
     <row r="7">
@@ -636,7 +636,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>dwt_198.mtx</t>
+          <t>ck400.mtx</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.09128363506714657</v>
+        <v>0.9910075825273185</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>18.54272240091243</v>
+        <v>5.510434619446432</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.4935732658866266</v>
+        <v>-0.001774730904533153</v>
       </c>
       <c r="H7" t="n">
-        <v>0.004953480690231358</v>
+        <v>9.727762257640255e-05</v>
       </c>
     </row>
     <row r="8">
@@ -668,7 +668,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>dwt_198.mtx</t>
+          <t>ck400.mtx</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.1407180628954739</v>
+        <v>0.1241345517331049</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -688,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.350084795085297</v>
+        <v>-0.0007622718975812859</v>
       </c>
       <c r="H8" t="n">
-        <v>27.11816833661489</v>
+        <v>5.510190540023777</v>
       </c>
     </row>
     <row r="9">
@@ -700,7 +700,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>dwt_198.mtx</t>
+          <t>ck400.mtx</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.3724573116208316</v>
+        <v>0.1002201575958092</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-15.98900095703556</v>
+        <v>-0.004663242906176872</v>
       </c>
       <c r="H9" t="n">
-        <v>46.78748859360314</v>
+        <v>5.513830235581229</v>
       </c>
     </row>
     <row r="10">
@@ -732,7 +732,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>dwt_198.mtx</t>
+          <t>ck400.mtx</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1330946800749871</v>
+        <v>0.1242480170513619</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03498518411232723</v>
+        <v>-0.000138497230404937</v>
       </c>
       <c r="H10" t="n">
-        <v>13.40976566982946</v>
+        <v>5.510193223584442</v>
       </c>
     </row>
     <row r="11">
@@ -764,7 +764,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>dwt_198.mtx</t>
+          <t>ck400.mtx</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.1330946800749871</v>
+        <v>0.1242480170513619</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -784,10 +784,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9656197226649308</v>
+        <v>0.9998615123598937</v>
       </c>
       <c r="H11" t="n">
-        <v>13.40976566982946</v>
+        <v>5.510193223584442</v>
       </c>
     </row>
     <row r="12">
@@ -796,7 +796,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>dwt_198.mtx</t>
+          <t>ck400.mtx</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.3602670679875323</v>
+        <v>0.1003266698004162</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.4189990634435924</v>
+        <v>-0.0008473278529053571</v>
       </c>
       <c r="H12" t="n">
-        <v>22.54623234723329</v>
+        <v>5.513838968348962</v>
       </c>
     </row>
     <row r="13">
@@ -828,7 +828,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>dwt_198.mtx</t>
+          <t>ck400.mtx</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.3346773127382603</v>
+        <v>0.2941244521387299</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>50.87180623493274</v>
+        <v>5.474757454803246</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.828349676444715</v>
+        <v>0.009792264125555755</v>
       </c>
       <c r="H13" t="n">
-        <v>0.308488803874258</v>
+        <v>-0.0007538954302242938</v>
       </c>
     </row>
     <row r="14">
@@ -860,7 +860,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>curtis54.mtx</t>
+          <t>dwt_234.mtx</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -869,7 +869,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.05939224104850525</v>
+        <v>0.6019315120095632</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.08884218915533888</v>
+        <v>0.002933464043631231</v>
       </c>
       <c r="H14" t="n">
-        <v>9.519691795895158</v>
+        <v>4.494721328935371</v>
       </c>
     </row>
     <row r="15">
@@ -892,7 +892,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>curtis54.mtx</t>
+          <t>dwt_234.mtx</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.232515143456841</v>
+        <v>0.8255771314806131</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.776368412663589</v>
+        <v>0.06186731079304004</v>
       </c>
       <c r="H15" t="n">
-        <v>15.47977978872284</v>
+        <v>4.376388891940547</v>
       </c>
     </row>
     <row r="16">
@@ -924,7 +924,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>curtis54.mtx</t>
+          <t>dwt_234.mtx</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.05590513999999568</v>
+        <v>0.5987799684312991</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.004508353736932249</v>
+        <v>0.0006473080134343486</v>
       </c>
       <c r="H16" t="n">
-        <v>7.667504699800323</v>
+        <v>4.49463080951789</v>
       </c>
     </row>
     <row r="17">
@@ -956,7 +956,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>curtis54.mtx</t>
+          <t>dwt_234.mtx</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.05590513999999568</v>
+        <v>0.5987799684312991</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -976,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9955017936347355</v>
+        <v>1.000647517562478</v>
       </c>
       <c r="H17" t="n">
-        <v>7.667504699800323</v>
+        <v>4.49463080951789</v>
       </c>
     </row>
     <row r="18">
@@ -988,7 +988,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>curtis54.mtx</t>
+          <t>dwt_234.mtx</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.2228425384812551</v>
+        <v>0.8228973024485473</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1008,10 +1008,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1421635439828797</v>
+        <v>0.01366549455561688</v>
       </c>
       <c r="H18" t="n">
-        <v>10.41426207758584</v>
+        <v>4.378611051766513</v>
       </c>
     </row>
     <row r="19">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>curtis54.mtx</t>
+          <t>dwt_234.mtx</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1029,7 +1029,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.1511314947030715</v>
+        <v>0.902520689484187</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1037,13 +1037,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>13.16075771668397</v>
+        <v>4.406951538815915</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.5257700996499974</v>
+        <v>0.01304307337676224</v>
       </c>
       <c r="H19" t="n">
-        <v>0.008916896132544056</v>
+        <v>-0.000229763848480248</v>
       </c>
     </row>
     <row r="20">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>curtis54.mtx</t>
+          <t>dwt_234.mtx</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.08855165850088109</v>
+        <v>0.5621262150610302</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1982685864748704</v>
+        <v>0.00457803145197561</v>
       </c>
       <c r="H20" t="n">
-        <v>10.9853193405266</v>
+        <v>4.516912560886566</v>
       </c>
     </row>
     <row r="21">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>curtis54.mtx</t>
+          <t>dwt_234.mtx</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1093,7 +1093,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.2897601192133631</v>
+        <v>0.721030094755964</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.931125999073053</v>
+        <v>0.05399836626812521</v>
       </c>
       <c r="H21" t="n">
-        <v>17.73309437773123</v>
+        <v>4.441439575006854</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>curtis54.mtx</t>
+          <t>dwt_234.mtx</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.08403400208543418</v>
+        <v>0.5610106566015791</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1136,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01010111537836921</v>
+        <v>0.001005890453831983</v>
       </c>
       <c r="H22" t="n">
-        <v>8.271625690778157</v>
+        <v>4.516939027010659</v>
       </c>
     </row>
     <row r="23">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>curtis54.mtx</t>
+          <t>dwt_234.mtx</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.08403400208543418</v>
+        <v>0.5610106566015791</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1168,10 +1168,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9899497295467466</v>
+        <v>1.001006396531307</v>
       </c>
       <c r="H23" t="n">
-        <v>8.271625690778157</v>
+        <v>4.516939027010659</v>
       </c>
     </row>
     <row r="24">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>curtis54.mtx</t>
+          <t>dwt_234.mtx</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1189,7 +1189,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.2790341909844157</v>
+        <v>0.7199550229189631</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.201749569538981</v>
+        <v>0.01186751764615722</v>
       </c>
       <c r="H24" t="n">
-        <v>11.70901447682066</v>
+        <v>4.442621301706244</v>
       </c>
     </row>
     <row r="25">
@@ -1212,7 +1212,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>curtis54.mtx</t>
+          <t>dwt_234.mtx</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.2194124002292516</v>
+        <v>0.909634614501989</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1229,13 +1229,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>16.45103959003306</v>
+        <v>4.400205398476716</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.162807454034834</v>
+        <v>0.02771824468841082</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02922845053212011</v>
+        <v>-0.001006096227671104</v>
       </c>
     </row>
     <row r="26">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>dwt_234.mtx</t>
+          <t>ck104.mtx</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.07137087990716962</v>
+        <v>0.740632166199391</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1264,10 +1264,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2042558574394687</v>
+        <v>-0.0004293404713670108</v>
       </c>
       <c r="H26" t="n">
-        <v>10.01825466050928</v>
+        <v>5.506234347919738</v>
       </c>
     </row>
     <row r="27">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dwt_234.mtx</t>
+          <t>ck104.mtx</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.2579594425546775</v>
+        <v>0.8221852931150792</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.080393017475921</v>
+        <v>-0.003271014164387837</v>
       </c>
       <c r="H27" t="n">
-        <v>19.82368239042091</v>
+        <v>5.509516175780632</v>
       </c>
     </row>
     <row r="28">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>dwt_234.mtx</t>
+          <t>ck104.mtx</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.05841674028404399</v>
+        <v>0.7406663006726074</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1328,10 +1328,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.008716608122265303</v>
+        <v>-7.801332608323719e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>5.767526826564697</v>
+        <v>5.506234983902468</v>
       </c>
     </row>
     <row r="29">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>dwt_234.mtx</t>
+          <t>ck104.mtx</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.05841674028404399</v>
+        <v>0.7406663006726074</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9913212713661949</v>
+        <v>0.9999219897168772</v>
       </c>
       <c r="H29" t="n">
-        <v>5.767526826564697</v>
+        <v>5.506234983902468</v>
       </c>
     </row>
     <row r="30">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>dwt_234.mtx</t>
+          <t>ck104.mtx</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1381,7 +1381,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.2288240109776311</v>
+        <v>0.8222158982463527</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1392,10 +1392,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2257029629668369</v>
+        <v>-0.0005943571144726862</v>
       </c>
       <c r="H30" t="n">
-        <v>8.980148660461044</v>
+        <v>5.509519437925857</v>
       </c>
     </row>
     <row r="31">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>dwt_234.mtx</t>
+          <t>ck104.mtx</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.1811197562059188</v>
+        <v>0.9781917808277077</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1421,13 +1421,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>16.90254965988627</v>
+        <v>5.515113187679963</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.211713662226345</v>
+        <v>-0.002926514153935892</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0251864451196719</v>
+        <v>0.0001664782455045732</v>
       </c>
     </row>
     <row r="32">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>dwt_234.mtx</t>
+          <t>ck104.mtx</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.1533028886056171</v>
+        <v>0.6603169743252479</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1456,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.9413157757758266</v>
+        <v>-0.000705493863031279</v>
       </c>
       <c r="H32" t="n">
-        <v>16.49161040969389</v>
+        <v>5.508047194092887</v>
       </c>
     </row>
     <row r="33">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>dwt_234.mtx</t>
+          <t>ck104.mtx</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.3884567374641736</v>
+        <v>0.7352102761353877</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>-9.976200558577196</v>
+        <v>-0.00506838646451766</v>
       </c>
       <c r="H33" t="n">
-        <v>27.72068058504827</v>
+        <v>5.512864137872399</v>
       </c>
     </row>
     <row r="34">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>dwt_234.mtx</t>
+          <t>ck104.mtx</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.1363131823070018</v>
+        <v>0.660312769261406</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1520,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.0418992541903097</v>
+        <v>-0.000128185168980508</v>
       </c>
       <c r="H34" t="n">
-        <v>7.766321015080667</v>
+        <v>5.508048734491977</v>
       </c>
     </row>
     <row r="35">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>dwt_234.mtx</t>
+          <t>ck104.mtx</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.1363131823070018</v>
+        <v>0.660312769261406</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1552,10 +1552,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9589663875512083</v>
+        <v>0.9998718230463873</v>
       </c>
       <c r="H35" t="n">
-        <v>7.766321015080667</v>
+        <v>5.508048734491977</v>
       </c>
     </row>
     <row r="36">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>dwt_234.mtx</t>
+          <t>ck104.mtx</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.3597316235923664</v>
+        <v>0.7352037560086564</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.4531691605870272</v>
+        <v>-0.0009209026432308951</v>
       </c>
       <c r="H36" t="n">
-        <v>13.04034126569033</v>
+        <v>5.512871574519325</v>
       </c>
     </row>
     <row r="37">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>dwt_234.mtx</t>
+          <t>ck104.mtx</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.3608899758181454</v>
+        <v>0.9624942222407239</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1613,13 +1613,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>31.51138179284034</v>
+        <v>5.527004723151232</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.447247190719764</v>
+        <v>-0.00635241741232357</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2371542849970494</v>
+        <v>0.0004033516820922276</v>
       </c>
     </row>
     <row r="38">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ck104.mtx</t>
+          <t>dwt_221.mtx</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1637,7 +1637,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.1016972292470088</v>
+        <v>0.6441216115372987</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2701115308294384</v>
+        <v>0.003924242009572693</v>
       </c>
       <c r="H38" t="n">
-        <v>7.405076733028809</v>
+        <v>8.065519966868091</v>
       </c>
     </row>
     <row r="39">
@@ -1660,7 +1660,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ck104.mtx</t>
+          <t>dwt_221.mtx</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1669,7 +1669,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.2599098034445044</v>
+        <v>0.8789257899636117</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1680,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.783559077756442</v>
+        <v>0.102957259950966</v>
       </c>
       <c r="H39" t="n">
-        <v>8.61342452935563</v>
+        <v>7.848792540077169</v>
       </c>
     </row>
     <row r="40">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ck104.mtx</t>
+          <t>dwt_221.mtx</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.01473369061299519</v>
+        <v>0.6410669527832693</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.01459693148653445</v>
+        <v>0.0004825240541989289</v>
       </c>
       <c r="H40" t="n">
-        <v>6.011429094670913</v>
+        <v>8.065396401180363</v>
       </c>
     </row>
     <row r="41">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ck104.mtx</t>
+          <t>dwt_221.mtx</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1733,7 +1733,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.01473369061299519</v>
+        <v>0.6410669527832693</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1744,10 +1744,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.985509087241633</v>
+        <v>1.000482640487657</v>
       </c>
       <c r="H41" t="n">
-        <v>6.011429094670913</v>
+        <v>8.065396401180363</v>
       </c>
     </row>
     <row r="42">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ck104.mtx</t>
+          <t>dwt_221.mtx</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.08058645376241064</v>
+        <v>0.87673479866682</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.1410017244107174</v>
+        <v>0.01267390421193432</v>
       </c>
       <c r="H42" t="n">
-        <v>6.864438232033748</v>
+        <v>7.852943779153122</v>
       </c>
     </row>
     <row r="43">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ck104.mtx</t>
+          <t>dwt_221.mtx</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.2934466104846447</v>
+        <v>0.9257186451595016</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1805,13 +1805,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>10.63051135461508</v>
+        <v>7.935535123569779</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.882828841622574</v>
+        <v>0.01586804007728393</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1466106646175578</v>
+        <v>-0.0002095403169773917</v>
       </c>
     </row>
     <row r="44">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ck104.mtx</t>
+          <t>dwt_221.mtx</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.1161648928701641</v>
+        <v>0.6292725944295094</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1840,10 +1840,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.3377909990070824</v>
+        <v>0.00996692913990584</v>
       </c>
       <c r="H44" t="n">
-        <v>7.662176966404288</v>
+        <v>8.125854037492399</v>
       </c>
     </row>
     <row r="45">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ck104.mtx</t>
+          <t>dwt_221.mtx</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1861,7 +1861,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.2797726484493107</v>
+        <v>0.7287851675473951</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1872,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.995982646030347</v>
+        <v>0.08201634773161763</v>
       </c>
       <c r="H45" t="n">
-        <v>8.81235813667077</v>
+        <v>8.037757613706839</v>
       </c>
     </row>
     <row r="46">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ck104.mtx</t>
+          <t>dwt_221.mtx</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.01931281817201392</v>
+        <v>0.6285505996214071</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1904,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.01959478709551987</v>
+        <v>0.001217022214320321</v>
       </c>
       <c r="H46" t="n">
-        <v>6.132526427939101</v>
+        <v>8.126047818190939</v>
       </c>
     </row>
     <row r="47">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ck104.mtx</t>
+          <t>dwt_221.mtx</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1925,7 +1925,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.01931281817201392</v>
+        <v>0.6285505996214071</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1936,10 +1936,10 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.9805959429420891</v>
+        <v>1.001217763086377</v>
       </c>
       <c r="H47" t="n">
-        <v>6.132526427939101</v>
+        <v>8.126047818190939</v>
       </c>
     </row>
     <row r="48">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ck104.mtx</t>
+          <t>dwt_221.mtx</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.09233201265887993</v>
+        <v>0.728084219874392</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.163131332504211</v>
+        <v>0.0100156212714908</v>
       </c>
       <c r="H48" t="n">
-        <v>7.012364876695863</v>
+        <v>8.039088239239621</v>
       </c>
     </row>
     <row r="49">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ck104.mtx</t>
+          <t>dwt_221.mtx</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.3306084919068124</v>
+        <v>0.9299839406362507</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1997,13 +1997,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>11.37589451811497</v>
+        <v>7.887178729288181</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.363455118122006</v>
+        <v>0.07361367799436595</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2025664119114924</v>
+        <v>-0.003977921803403828</v>
       </c>
     </row>
     <row r="50">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.02885626962304486</v>
+        <v>0.8134422929704959</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2032,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.0207887703073936</v>
+        <v>0.0002611566639561405</v>
       </c>
       <c r="H50" t="n">
-        <v>2.375033991320627</v>
+        <v>0.9576983296382543</v>
       </c>
     </row>
     <row r="51">
@@ -2053,7 +2053,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.1545823775111842</v>
+        <v>0.9743625280611836</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.504131812554883</v>
+        <v>0.01091970676943574</v>
       </c>
       <c r="H51" t="n">
-        <v>6.796320753316958</v>
+        <v>0.9303963054788743</v>
       </c>
     </row>
     <row r="52">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.02164768847040541</v>
+        <v>0.8113420243502971</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2096,10 +2096,10 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.001840340973549513</v>
+        <v>0.0002697742808565796</v>
       </c>
       <c r="H52" t="n">
-        <v>1.103898827623551</v>
+        <v>0.9577149327711422</v>
       </c>
     </row>
     <row r="53">
@@ -2117,7 +2117,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.02164768847040541</v>
+        <v>0.8113420243502971</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9981613514155498</v>
+        <v>1.00026981067321</v>
       </c>
       <c r="H53" t="n">
-        <v>1.103898827623551</v>
+        <v>0.9577149327711422</v>
       </c>
     </row>
     <row r="54">
@@ -2149,7 +2149,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.1353450267241185</v>
+        <v>0.9741947277573539</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1438503358068695</v>
+        <v>0.01129365188436072</v>
       </c>
       <c r="H54" t="n">
-        <v>1.697491199493188</v>
+        <v>0.9310342721442431</v>
       </c>
     </row>
     <row r="55">
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.0758766011884425</v>
+        <v>0.9924339089634795</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2189,13 +2189,13 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>4.140073177641858</v>
+        <v>0.9478692706707648</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1246146047968778</v>
+        <v>0.0007802100712921258</v>
       </c>
       <c r="H55" t="n">
-        <v>0.001027978559301824</v>
+        <v>-4.943365784152205e-06</v>
       </c>
     </row>
     <row r="56">
@@ -2213,7 +2213,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.04603698186867833</v>
+        <v>0.04387422411495082</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.05112549191172517</v>
+        <v>-0.0001927983181930061</v>
       </c>
       <c r="H56" t="n">
-        <v>3.198627748685131</v>
+        <v>0.991700042586824</v>
       </c>
     </row>
     <row r="57">
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.2011731054741375</v>
+        <v>2.419444573158789e-05</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>-2.19955979617252</v>
+        <v>-0.0001198728888791614</v>
       </c>
       <c r="H57" t="n">
-        <v>8.588294933977828</v>
+        <v>0.9854520529805759</v>
       </c>
     </row>
     <row r="58">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.04468835573522814</v>
+        <v>0.04095929302376885</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2288,10 +2288,10 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.005134879170907182</v>
+        <v>-0.000188192205782721</v>
       </c>
       <c r="H58" t="n">
-        <v>1.228131381600424</v>
+        <v>0.9913359029585253</v>
       </c>
     </row>
     <row r="59">
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.04468835573522814</v>
+        <v>0.04095929302376885</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9948782817848676</v>
+        <v>0.9998118255012597</v>
       </c>
       <c r="H59" t="n">
-        <v>1.228131381600424</v>
+        <v>0.9913359029585253</v>
       </c>
     </row>
     <row r="60">
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.1887304326018608</v>
+        <v>1.408400495850901e-05</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2352,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2171804576173675</v>
+        <v>9.239598674396846e-05</v>
       </c>
       <c r="H60" t="n">
-        <v>2.085142437284539</v>
+        <v>0.9846140608789293</v>
       </c>
     </row>
     <row r="61">
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.1170329395648404</v>
+        <v>0.194346462110171</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2381,13 +2381,13 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>5.947058173138529</v>
+        <v>0.97116880503295</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3009828032256703</v>
+        <v>0.001398353375424362</v>
       </c>
       <c r="H61" t="n">
-        <v>0.003843958635599156</v>
+        <v>-2.306016947271557e-05</v>
       </c>
     </row>
     <row r="62">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ck400.mtx</t>
+          <t>dwt_162.mtx</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.1521806968850107</v>
+        <v>0.7245578900748566</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2416,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.6850621491771485</v>
+        <v>0.002162402797181195</v>
       </c>
       <c r="H62" t="n">
-        <v>10.40394472536686</v>
+        <v>8.029946143300123</v>
       </c>
     </row>
     <row r="63">
@@ -2428,7 +2428,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ck400.mtx</t>
+          <t>dwt_162.mtx</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.347133544207663</v>
+        <v>0.9368736785435567</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2448,10 +2448,10 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.27352338321159</v>
+        <v>0.06183089608163644</v>
       </c>
       <c r="H63" t="n">
-        <v>13.09100893696387</v>
+        <v>7.895464465049518</v>
       </c>
     </row>
     <row r="64">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ck400.mtx</t>
+          <t>dwt_162.mtx</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.01314970683790943</v>
+        <v>0.7227958091418729</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2480,10 +2480,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02216480105687052</v>
+        <v>0.0002676955083452156</v>
       </c>
       <c r="H64" t="n">
-        <v>6.2669249072164</v>
+        <v>8.029953395908265</v>
       </c>
     </row>
     <row r="65">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ck400.mtx</t>
+          <t>dwt_162.mtx</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.01314970683790943</v>
+        <v>0.7227958091418729</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2512,10 +2512,10 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>0.978079033310074</v>
+        <v>1.000267731341985</v>
       </c>
       <c r="H65" t="n">
-        <v>6.2669249072164</v>
+        <v>8.029953395908265</v>
       </c>
     </row>
     <row r="66">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ck400.mtx</t>
+          <t>dwt_162.mtx</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2533,7 +2533,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.0786086115530074</v>
+        <v>0.9359502113436587</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2544,10 +2544,10 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2238352442577022</v>
+        <v>0.007659926756417034</v>
       </c>
       <c r="H66" t="n">
-        <v>7.779323423673665</v>
+        <v>7.897230620890713</v>
       </c>
     </row>
     <row r="67">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ck400.mtx</t>
+          <t>dwt_162.mtx</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.3884350902250398</v>
+        <v>0.9615568785587144</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2573,13 +2573,13 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>17.82683137748663</v>
+        <v>7.961904439952412</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.396505475237038</v>
+        <v>0.007725560932528627</v>
       </c>
       <c r="H67" t="n">
-        <v>0.3374039387327173</v>
+        <v>-8.558704823611281e-05</v>
       </c>
     </row>
     <row r="68">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ck400.mtx</t>
+          <t>dwt_162.mtx</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2597,7 +2597,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.1731851870581511</v>
+        <v>0.3624425568603754</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.8531399723317505</v>
+        <v>0.002183448306426839</v>
       </c>
       <c r="H68" t="n">
-        <v>11.06820647457584</v>
+        <v>8.080386053862014</v>
       </c>
     </row>
     <row r="69">
@@ -2620,7 +2620,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ck400.mtx</t>
+          <t>dwt_162.mtx</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.371000383753823</v>
+        <v>0.5850423198426571</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2640,10 +2640,10 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.754398799758143</v>
+        <v>0.04411979932535251</v>
       </c>
       <c r="H69" t="n">
-        <v>13.56528363580711</v>
+        <v>7.997307057225478</v>
       </c>
     </row>
     <row r="70">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ck400.mtx</t>
+          <t>dwt_162.mtx</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.01845176442916533</v>
+        <v>0.36212374837327</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2672,10 +2672,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.03079474980601983</v>
+        <v>0.0002699499050218038</v>
       </c>
       <c r="H70" t="n">
-        <v>6.523654701051241</v>
+        <v>8.080264011463917</v>
       </c>
     </row>
     <row r="71">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ck400.mtx</t>
+          <t>dwt_162.mtx</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.01845176442916533</v>
+        <v>0.36212374837327</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2704,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9696745785477161</v>
+        <v>1.000269986344776</v>
       </c>
       <c r="H71" t="n">
-        <v>6.523654701051241</v>
+        <v>8.080264011463917</v>
       </c>
     </row>
     <row r="72">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ck400.mtx</t>
+          <t>dwt_162.mtx</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.09083948126137484</v>
+        <v>0.5846333395930466</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2736,10 +2736,10 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.260158824278969</v>
+        <v>0.005455229550664597</v>
       </c>
       <c r="H72" t="n">
-        <v>8.097193289429173</v>
+        <v>7.997681691589619</v>
       </c>
     </row>
     <row r="73">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ck400.mtx</t>
+          <t>dwt_162.mtx</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.4269001290032768</v>
+        <v>0.7727117242887577</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2765,13 +2765,13 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>19.42384498939007</v>
+        <v>7.989889164569381</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.410760980412238</v>
+        <v>0.01400091151302484</v>
       </c>
       <c r="H73" t="n">
-        <v>0.4557621008080489</v>
+        <v>-0.0003109858738578398</v>
       </c>
     </row>
     <row r="74">
@@ -2780,7 +2780,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>dwt_162.mtx</t>
+          <t>dwt_198.mtx</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.04736410341858512</v>
+        <v>0.7326482190122723</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2800,10 +2800,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.1405560757038054</v>
+        <v>0.001183981441775567</v>
       </c>
       <c r="H74" t="n">
-        <v>13.8334439929778</v>
+        <v>8.160094166366436</v>
       </c>
     </row>
     <row r="75">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>dwt_162.mtx</t>
+          <t>dwt_198.mtx</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.2058178310188802</v>
+        <v>0.9530617862050036</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2832,10 +2832,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.680510109148104</v>
+        <v>0.04373730582560002</v>
       </c>
       <c r="H75" t="n">
-        <v>27.40488778406687</v>
+        <v>8.05498626914984</v>
       </c>
     </row>
     <row r="76">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>dwt_162.mtx</t>
+          <t>dwt_198.mtx</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.04143380415602746</v>
+        <v>0.7312604676305284</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2864,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.003714646246172532</v>
+        <v>0.0001444774696291714</v>
       </c>
       <c r="H76" t="n">
-        <v>9.441159300148591</v>
+        <v>8.160092271234191</v>
       </c>
     </row>
     <row r="77">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>dwt_162.mtx</t>
+          <t>dwt_198.mtx</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2885,7 +2885,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.04143380415602746</v>
+        <v>0.7312604676305284</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2896,10 +2896,10 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0.9962922445173046</v>
+        <v>1.000144487907001</v>
       </c>
       <c r="H77" t="n">
-        <v>9.441159300148591</v>
+        <v>8.160092271234191</v>
       </c>
     </row>
     <row r="78">
@@ -2908,7 +2908,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>dwt_162.mtx</t>
+          <t>dwt_198.mtx</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.192006303983319</v>
+        <v>0.9524459331869339</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1550310456521082</v>
+        <v>0.005340459156279616</v>
       </c>
       <c r="H78" t="n">
-        <v>13.7243155699062</v>
+        <v>8.056003197143042</v>
       </c>
     </row>
     <row r="79">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>dwt_162.mtx</t>
+          <t>dwt_198.mtx</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.1227798358907363</v>
+        <v>0.9594225927700436</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2957,13 +2957,13 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>21.05385636584096</v>
+        <v>8.11476870241566</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.8393056601744339</v>
+        <v>0.004030455477182798</v>
       </c>
       <c r="H79" t="n">
-        <v>0.01145491122082998</v>
+        <v>-3.271809236100192e-05</v>
       </c>
     </row>
     <row r="80">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>dwt_162.mtx</t>
+          <t>dwt_198.mtx</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.08653312182406764</v>
+        <v>0.7981980364977039</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2992,10 +2992,10 @@
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4626120580562846</v>
+        <v>0.007125680433781621</v>
       </c>
       <c r="H80" t="n">
-        <v>18.61403308956331</v>
+        <v>8.119771896242138</v>
       </c>
     </row>
     <row r="81">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>dwt_162.mtx</t>
+          <t>dwt_198.mtx</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.2869743077157977</v>
+        <v>0.9210337545282483</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3024,10 +3024,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>-9.490150013777791</v>
+        <v>0.08552527498652229</v>
       </c>
       <c r="H81" t="n">
-        <v>35.20961753711445</v>
+        <v>7.99953281967893</v>
       </c>
     </row>
     <row r="82">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>dwt_162.mtx</t>
+          <t>dwt_198.mtx</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.08083458108012138</v>
+        <v>0.7971404048489403</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3056,10 +3056,10 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.01262725317479941</v>
+        <v>0.0008697187402806522</v>
       </c>
       <c r="H82" t="n">
-        <v>10.821628055767</v>
+        <v>8.120002214053075</v>
       </c>
     </row>
     <row r="83">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>dwt_162.mtx</t>
+          <t>dwt_198.mtx</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3077,7 +3077,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.08083458108012138</v>
+        <v>0.7971404048489403</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.9874521360791747</v>
+        <v>1.000870097055292</v>
       </c>
       <c r="H83" t="n">
-        <v>10.821628055767</v>
+        <v>8.120002214053075</v>
       </c>
     </row>
     <row r="84">
@@ -3100,7 +3100,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>dwt_162.mtx</t>
+          <t>dwt_198.mtx</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3109,7 +3109,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.2748622816333569</v>
+        <v>0.9203685476595298</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3120,10 +3120,10 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2622972106706653</v>
+        <v>0.01044186305025915</v>
       </c>
       <c r="H84" t="n">
-        <v>17.1659947684586</v>
+        <v>8.001644171059516</v>
       </c>
     </row>
     <row r="85">
@@ -3132,7 +3132,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>dwt_162.mtx</t>
+          <t>dwt_198.mtx</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.2151674153578477</v>
+        <v>0.9887186239421047</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3149,13 +3149,13 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>31.76720865110662</v>
+        <v>8.005109477793249</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.717442154320853</v>
+        <v>0.02835946162802141</v>
       </c>
       <c r="H85" t="n">
-        <v>0.06631853224307553</v>
+        <v>-0.000849351247769582</v>
       </c>
     </row>
     <row r="86">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>dwt_221.mtx</t>
+          <t>curtis54.mtx</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3173,7 +3173,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.05407579218497592</v>
+        <v>0.5040820654554217</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3184,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2212837350484753</v>
+        <v>0.0002818959398982497</v>
       </c>
       <c r="H86" t="n">
-        <v>16.02192439653744</v>
+        <v>6.60888836653245</v>
       </c>
     </row>
     <row r="87">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>dwt_221.mtx</t>
+          <t>curtis54.mtx</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3205,7 +3205,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.2216779120769089</v>
+        <v>0.6992226350282916</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3216,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.613994286001024</v>
+        <v>0.007006391813222754</v>
       </c>
       <c r="H87" t="n">
-        <v>33.0527229978679</v>
+        <v>6.594464292197842</v>
       </c>
     </row>
     <row r="88">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>dwt_221.mtx</t>
+          <t>curtis54.mtx</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.04471015565555946</v>
+        <v>0.5034206381957318</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3248,10 +3248,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.005074139455968266</v>
+        <v>4.263389406107135e-05</v>
       </c>
       <c r="H88" t="n">
-        <v>9.81390210397157</v>
+        <v>6.60888575786558</v>
       </c>
     </row>
     <row r="89">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>dwt_221.mtx</t>
+          <t>curtis54.mtx</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3269,7 +3269,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.04471015565555946</v>
+        <v>0.5034206381957318</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0.994938712243348</v>
+        <v>1.000042634802898</v>
       </c>
       <c r="H89" t="n">
-        <v>9.81390210397157</v>
+        <v>6.60888575786558</v>
       </c>
     </row>
     <row r="90">
@@ -3292,7 +3292,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>dwt_221.mtx</t>
+          <t>curtis54.mtx</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.2000897382671253</v>
+        <v>0.698570071629695</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3312,10 +3312,10 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1824210719900289</v>
+        <v>0.001059846487349502</v>
       </c>
       <c r="H90" t="n">
-        <v>14.8479874648358</v>
+        <v>6.594480082117624</v>
       </c>
     </row>
     <row r="91">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>dwt_221.mtx</t>
+          <t>curtis54.mtx</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.1395094755144425</v>
+        <v>0.6777777770150271</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3341,13 +3341,13 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>25.91075050197862</v>
+        <v>6.601000272493949</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.320042191208605</v>
+        <v>0.001054666705223009</v>
       </c>
       <c r="H91" t="n">
-        <v>0.02073129162566283</v>
+        <v>-1.458058047782409e-05</v>
       </c>
     </row>
     <row r="92">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>dwt_221.mtx</t>
+          <t>curtis54.mtx</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3365,7 +3365,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.2463371651993906</v>
+        <v>0.127889725425686</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3376,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.694188184578651</v>
+        <v>0.000458170917931221</v>
       </c>
       <c r="H92" t="n">
-        <v>45.73434438123763</v>
+        <v>6.614384363498537</v>
       </c>
     </row>
     <row r="93">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>dwt_221.mtx</t>
+          <t>curtis54.mtx</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3397,7 +3397,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.4969185145075145</v>
+        <v>0.2139972792141735</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3408,10 +3408,10 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>-29.6765848340682</v>
+        <v>0.00921590478185118</v>
       </c>
       <c r="H93" t="n">
-        <v>64.78819014467972</v>
+        <v>6.597062605942484</v>
       </c>
     </row>
     <row r="94">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>dwt_221.mtx</t>
+          <t>curtis54.mtx</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3429,7 +3429,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.2320955530619784</v>
+        <v>0.1283855559216877</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -3440,10 +3440,10 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1150764404184434</v>
+        <v>6.923078643784018e-05</v>
       </c>
       <c r="H94" t="n">
-        <v>20.53923543984017</v>
+        <v>6.614375534532866</v>
       </c>
     </row>
     <row r="95">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>dwt_221.mtx</t>
+          <t>curtis54.mtx</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.2320955530619784</v>
+        <v>0.1283855559216877</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0.8912980101099259</v>
+        <v>1.000069233182944</v>
       </c>
       <c r="H95" t="n">
-        <v>20.53923543984017</v>
+        <v>6.614375534532866</v>
       </c>
     </row>
     <row r="96">
@@ -3484,7 +3484,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>dwt_221.mtx</t>
+          <t>curtis54.mtx</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3493,7 +3493,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.4784841378468482</v>
+        <v>0.2146795516213578</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -3504,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.7354659792173809</v>
+        <v>0.001392068746822836</v>
       </c>
       <c r="H96" t="n">
-        <v>33.18480712710444</v>
+        <v>6.597094783234794</v>
       </c>
     </row>
     <row r="97">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>dwt_221.mtx</t>
+          <t>curtis54.mtx</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.5341485034687687</v>
+        <v>0.4448184904771836</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3533,13 +3533,13 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>92.97060633574209</v>
+        <v>6.586678695981282</v>
       </c>
       <c r="G97" t="n">
-        <v>-26.4955398558884</v>
+        <v>0.004158927950920935</v>
       </c>
       <c r="H97" t="n">
-        <v>1.816779305942479</v>
+        <v>-0.0001000204603510758</v>
       </c>
     </row>
     <row r="98">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>dwt_193.mtx</t>
+          <t>can_1072.mtx</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3557,7 +3557,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.1658669120511505</v>
+        <v>0.542596318316379</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.773312150350329</v>
+        <v>0.002796393410337859</v>
       </c>
       <c r="H98" t="n">
-        <v>78.37244959371554</v>
+        <v>14.78509350987663</v>
       </c>
     </row>
     <row r="99">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>dwt_193.mtx</t>
+          <t>can_1072.mtx</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3589,7 +3589,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.4060194129789034</v>
+        <v>0.7790648661281857</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>-47.39175814763027</v>
+        <v>0.06727908699943175</v>
       </c>
       <c r="H99" t="n">
-        <v>128.8164248092377</v>
+        <v>14.64833203282113</v>
       </c>
     </row>
     <row r="100">
@@ -3612,7 +3612,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>dwt_193.mtx</t>
+          <t>can_1072.mtx</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.1629980608896168</v>
+        <v>0.5411507290046105</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.04911384519155883</v>
+        <v>0.0001887097409140425</v>
       </c>
       <c r="H100" t="n">
-        <v>38.0268133292795</v>
+        <v>14.78501836958202</v>
       </c>
     </row>
     <row r="101">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>dwt_193.mtx</t>
+          <t>can_1072.mtx</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3653,7 +3653,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.1629980608896168</v>
+        <v>0.5411507290046105</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3664,10 +3664,10 @@
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9520727346256416</v>
+        <v>1.000188727547717</v>
       </c>
       <c r="H101" t="n">
-        <v>38.0268133292795</v>
+        <v>14.78501836958202</v>
       </c>
     </row>
     <row r="102">
@@ -3676,7 +3676,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>dwt_193.mtx</t>
+          <t>can_1072.mtx</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3685,7 +3685,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.4012174870362443</v>
+        <v>0.777698156838447</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3696,10 +3696,10 @@
         <v>0</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.4889811410275434</v>
+        <v>0.004542282701604998</v>
       </c>
       <c r="H102" t="n">
-        <v>64.07109540862513</v>
+        <v>14.64910036220642</v>
       </c>
     </row>
     <row r="103">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>dwt_193.mtx</t>
+          <t>can_1072.mtx</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.3846177306328304</v>
+        <v>0.8306022559219481</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3725,13 +3725,13 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>150.0549019690804</v>
+        <v>14.69164305788753</v>
       </c>
       <c r="G103" t="n">
-        <v>-27.40987605836027</v>
+        <v>0.0124304606257098</v>
       </c>
       <c r="H103" t="n">
-        <v>1.25758688377833</v>
+        <v>-0.0001926813443074336</v>
       </c>
     </row>
     <row r="104">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>dwt_193.mtx</t>
+          <t>can_1072.mtx</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3749,7 +3749,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.1991505771462949</v>
+        <v>0.7401591810173216</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3760,10 +3760,10 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>-6.957377067400778</v>
+        <v>0.001914660877033244</v>
       </c>
       <c r="H104" t="n">
-        <v>90.6671927485353</v>
+        <v>14.83734191259141</v>
       </c>
     </row>
     <row r="105">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>dwt_193.mtx</t>
+          <t>can_1072.mtx</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.4462673507263268</v>
+        <v>0.9021802596027653</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3792,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>-56.2822791080529</v>
+        <v>0.03060476869196375</v>
       </c>
       <c r="H105" t="n">
-        <v>139.7596748630004</v>
+        <v>14.78654948378511</v>
       </c>
     </row>
     <row r="106">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>dwt_193.mtx</t>
+          <t>can_1072.mtx</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3813,7 +3813,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.1960984232608189</v>
+        <v>0.7396660006491138</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3824,10 +3824,10 @@
         <v>0</v>
       </c>
       <c r="G106" t="n">
-        <v>-0.07165998826496528</v>
+        <v>0.0001288338358074095</v>
       </c>
       <c r="H106" t="n">
-        <v>43.18782470706832</v>
+        <v>14.83735046743541</v>
       </c>
     </row>
     <row r="107">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>dwt_193.mtx</t>
+          <t>can_1072.mtx</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.1960984232608189</v>
+        <v>0.7396660006491138</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="G107" t="n">
-        <v>0.9308473410300893</v>
+        <v>1.000128842135242</v>
       </c>
       <c r="H107" t="n">
-        <v>43.18782470706832</v>
+        <v>14.83735046743541</v>
       </c>
     </row>
     <row r="108">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>dwt_193.mtx</t>
+          <t>can_1072.mtx</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3877,7 +3877,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.4414843366629637</v>
+        <v>0.9018160709579369</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3888,10 +3888,10 @@
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>-0.5810542650598736</v>
+        <v>0.002059606424082594</v>
       </c>
       <c r="H108" t="n">
-        <v>71.78259449908496</v>
+        <v>14.78671615266877</v>
       </c>
     </row>
     <row r="109">
@@ -3900,7 +3900,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>dwt_193.mtx</t>
+          <t>can_1072.mtx</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3909,7 +3909,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.4486051096554947</v>
+        <v>0.9415913846529377</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3917,13 +3917,13 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>177.724546683013</v>
+        <v>14.80055088437885</v>
       </c>
       <c r="G109" t="n">
-        <v>-39.60388479282992</v>
+        <v>0.00719269867967716</v>
       </c>
       <c r="H109" t="n">
-        <v>2.176433848361943</v>
+        <v>-0.0001552364059601188</v>
       </c>
     </row>
     <row r="110">
@@ -3932,7 +3932,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>can_1072.mtx</t>
+          <t>dwt_193.mtx</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.06462873360141504</v>
+        <v>0.6497857126717128</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>-1.176778048140526</v>
+        <v>0.002531726204687389</v>
       </c>
       <c r="H110" t="n">
-        <v>50.95699856345835</v>
+        <v>21.06792197384279</v>
       </c>
     </row>
     <row r="111">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>can_1072.mtx</t>
+          <t>dwt_193.mtx</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3973,7 +3973,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.2446747084156704</v>
+        <v>0.7899566479197211</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3984,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>-34.09865771462197</v>
+        <v>0.02800065078918775</v>
       </c>
       <c r="H111" t="n">
-        <v>121.7344993656965</v>
+        <v>21.03044970933684</v>
       </c>
     </row>
     <row r="112">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>can_1072.mtx</t>
+          <t>dwt_193.mtx</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4005,7 +4005,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.06041277675667757</v>
+        <v>0.6495799568201142</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4016,10 +4016,10 @@
         <v>0</v>
       </c>
       <c r="G112" t="n">
-        <v>-0.00934694324244543</v>
+        <v>0.000120053750988049</v>
       </c>
       <c r="H112" t="n">
-        <v>19.80479685320245</v>
+        <v>21.06792718725869</v>
       </c>
     </row>
     <row r="113">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>can_1072.mtx</t>
+          <t>dwt_193.mtx</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4037,7 +4037,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.06041277675667757</v>
+        <v>0.6495799568201142</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4048,10 +4048,10 @@
         <v>0</v>
       </c>
       <c r="G113" t="n">
-        <v>0.9906966036491544</v>
+        <v>1.000120060957728</v>
       </c>
       <c r="H113" t="n">
-        <v>19.80479685320245</v>
+        <v>21.06792718725869</v>
       </c>
     </row>
     <row r="114">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>can_1072.mtx</t>
+          <t>dwt_193.mtx</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.2346932555546908</v>
+        <v>0.7897683669158152</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4080,10 +4080,10 @@
         <v>0</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.2743572996569454</v>
+        <v>0.001327835059858522</v>
       </c>
       <c r="H114" t="n">
-        <v>35.09964466687166</v>
+        <v>21.03052176419735</v>
       </c>
     </row>
     <row r="115">
@@ -4092,7 +4092,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>can_1072.mtx</t>
+          <t>dwt_193.mtx</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.1635264104455239</v>
+        <v>0.9167986249025052</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4109,13 +4109,13 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>96.14693103285813</v>
+        <v>21.01556371151644</v>
       </c>
       <c r="G115" t="n">
-        <v>-6.94570559742561</v>
+        <v>0.01329697640263393</v>
       </c>
       <c r="H115" t="n">
-        <v>0.1254114684627192</v>
+        <v>-0.0004893295544519774</v>
       </c>
     </row>
     <row r="116">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>can_1072.mtx</t>
+          <t>dwt_193.mtx</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4133,7 +4133,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.09942575532143651</v>
+        <v>0.6331802293748968</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4144,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="G116" t="n">
-        <v>-2.804531917207652</v>
+        <v>0.00111909728828874</v>
       </c>
       <c r="H116" t="n">
-        <v>70.96246893165609</v>
+        <v>21.09070735146013</v>
       </c>
     </row>
     <row r="117">
@@ -4156,7 +4156,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>can_1072.mtx</t>
+          <t>dwt_193.mtx</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4165,7 +4165,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.309702438001385</v>
+        <v>0.7463849738285894</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -4176,10 +4176,10 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>-49.7277295374039</v>
+        <v>0.01076325275177539</v>
       </c>
       <c r="H117" t="n">
-        <v>151.082447463044</v>
+        <v>21.07764544729086</v>
       </c>
     </row>
     <row r="118">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>can_1072.mtx</t>
+          <t>dwt_193.mtx</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.09526823889544134</v>
+        <v>0.6330987386491057</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4208,10 +4208,10 @@
         <v>0</v>
       </c>
       <c r="G118" t="n">
-        <v>-0.02255149730278291</v>
+        <v>5.3041058905144e-05</v>
       </c>
       <c r="H118" t="n">
-        <v>23.34761156443349</v>
+        <v>21.09070831270873</v>
       </c>
     </row>
     <row r="119">
@@ -4220,7 +4220,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>can_1072.mtx</t>
+          <t>dwt_193.mtx</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.09526823889544134</v>
+        <v>0.6330987386491057</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4240,10 +4240,10 @@
         <v>0</v>
       </c>
       <c r="G119" t="n">
-        <v>0.9777008869382906</v>
+        <v>1.000053042465607</v>
       </c>
       <c r="H119" t="n">
-        <v>23.34761156443349</v>
+        <v>21.09070831270873</v>
       </c>
     </row>
     <row r="120">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>can_1072.mtx</t>
+          <t>dwt_193.mtx</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4261,7 +4261,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.300897786354029</v>
+        <v>0.7463083839330515</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4272,10 +4272,10 @@
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.4026485978995482</v>
+        <v>0.0005101448965501968</v>
       </c>
       <c r="H120" t="n">
-        <v>44.77213300290708</v>
+        <v>21.07765508698881</v>
       </c>
     </row>
     <row r="121">
@@ -4284,7 +4284,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>can_1072.mtx</t>
+          <t>dwt_193.mtx</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4293,7 +4293,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.2440529896725763</v>
+        <v>0.864722566115621</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4301,13 +4301,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>141.148482635409</v>
+        <v>21.06877206846296</v>
       </c>
       <c r="G121" t="n">
-        <v>-16.38892166632113</v>
+        <v>0.006201662860802299</v>
       </c>
       <c r="H121" t="n">
-        <v>0.4528129916371161</v>
+        <v>-0.0002675034511848444</v>
       </c>
     </row>
   </sheetData>
